--- a/BSDT-statistical-analysis/media/survey/survey_responses.xlsx
+++ b/BSDT-statistical-analysis/media/survey/survey_responses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,210 +436,351 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>answer this linear scale</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>likert scale select - Subtext 1</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>likert scale select - Subtext 2</t>
+          <t>What is your age-group (in years)?</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>likert scale select - Subtext 3</t>
+          <t>Do you use social media?</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>tickbox grid - Row 1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>tickbox grid - Row 2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>dropdown select</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sdfsdfs - Subtext 1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>sdfsdfs - Subtext 2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>sdfsdfs - Subtext 3</t>
+          <t>Over shopping in websites and shopping in social media- which one you will pick?</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ali</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strongly Disagree</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Disagree</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>45+</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Column 1; Column 2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Column 1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>Social media</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Karim</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strongly Disagree</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Disagree</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Social media</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rahim</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strongly Disagree</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Disagree</t>
+          <t>Under 18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Column 1; Column 2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Column 1; Column 2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>Website</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Joya</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Strongly Disagree</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Disagree</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Column 1; Column 2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Column 1; Column 2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Option 1</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Disagree</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Strongly Disagree</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>Website</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Raisa</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Under 18</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Social media</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Akash</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Social media</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rasha</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Under 18</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Social media</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rais</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Kaushik</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Asad</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>45+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Naina</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Website</t>
         </is>
       </c>
     </row>
